--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T22:43:21+00:00</t>
+    <t>2024-11-03T22:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-03T22:10:48+00:00</t>
+    <t>2024-11-28T19:58:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1211,7 +1211,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4B/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T19:58:40+00:00</t>
+    <t>2024-11-28T22:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
